--- a/yekssin/evidence.xlsx
+++ b/yekssin/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnrce\Desktop\TESTNETS\gon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnrce\Desktop\TESTNETS\gon\yekssin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>TeamName</t>
   </si>
@@ -75,33 +75,15 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
     <t>nft id</t>
   </si>
   <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
     <t>ibc class on chain</t>
   </si>
   <si>
@@ -142,13 +124,73 @@
   </si>
   <si>
     <t>https://yeksin.net</t>
+  </si>
+  <si>
+    <t>8E1C98B404E5AA99840A19E5529C98957E128A3313ACF25865EE1258CFA17AD2</t>
+  </si>
+  <si>
+    <t>yksnft</t>
+  </si>
+  <si>
+    <t>DEAD9999C93E64804D2584112D8E7EA73ABEB41C440569C9767D64AE15FB1D72</t>
+  </si>
+  <si>
+    <t>565C40AF5BFA188BED96359A627A26D52BFBBE075F17EBF05E6D1ADED714C7E2</t>
+  </si>
+  <si>
+    <t>AB55753EDA23A539150AC06D13AF35A530798FF17F0A53AFB31CA93B7C7844AD</t>
+  </si>
+  <si>
+    <t>D104C6987199F4B70A647128A886903E50E57E7F905D8349033F7C1C42679530</t>
+  </si>
+  <si>
+    <t>CED81213468EA4463AD549EB93E4440A6A827235F4937E57D6C5239C8FE29AE7</t>
+  </si>
+  <si>
+    <t>yksnft5</t>
+  </si>
+  <si>
+    <t>yksnft4</t>
+  </si>
+  <si>
+    <t>yksnft3</t>
+  </si>
+  <si>
+    <t>yksnft2</t>
+  </si>
+  <si>
+    <t>yksnft1</t>
+  </si>
+  <si>
+    <t>24FA6AFF354CE7D9E963F261CA0496AA195C9C0E66C3EBBC4B7991408158F985</t>
+  </si>
+  <si>
+    <t>stars1seyrah47f9632fu46prp64y8d25cdes5zuzkjqeen3kcjvp6nvwswz44wv</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>9B83C67B7540FF697AEB5FBD539ABCED5A5AA52BC8F87706F7C2B1AD88C87073</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>ibc/152BAB5747B8C79B99740945156796BC4E505968008BBCF8DAF97BC870BD9712</t>
+  </si>
+  <si>
+    <t>76B1B09A978A17753DCD21C1CC65099EAEA6F58DFE6D2D3CB5F98154C4D81D86</t>
+  </si>
+  <si>
+    <t>442A9B2A299F996C1E07B91B8CFED898D251EEDB46FC68214FB2744C6DCA6A8D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -173,6 +215,20 @@
       <color theme="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="4">
@@ -208,16 +264,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -564,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -607,28 +665,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -656,15 +714,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -689,15 +747,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -722,15 +780,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -755,15 +813,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -788,25 +846,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -831,25 +889,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -874,25 +932,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -917,25 +975,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -960,25 +1018,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1003,25 +1061,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1051,53 +1111,53 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1122,25 +1182,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1164,12 +1224,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1199,12 +1259,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1234,12 +1294,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1269,12 +1329,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1289,9 +1349,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1307,23 +1369,67 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1331,7 +1437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1347,24 +1455,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1393,24 +1503,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1439,24 +1551,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1487,24 +1601,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1529,15 +1645,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1562,15 +1678,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/yekssin/evidence.xlsx
+++ b/yekssin/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>TeamName</t>
   </si>
@@ -81,21 +81,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -183,14 +168,167 @@
     <t>76B1B09A978A17753DCD21C1CC65099EAEA6F58DFE6D2D3CB5F98154C4D81D86</t>
   </si>
   <si>
-    <t>442A9B2A299F996C1E07B91B8CFED898D251EEDB46FC68214FB2744C6DCA6A8D</t>
+    <t>47E73106CAC7C57ACD51B8FCBECAEEACF1CE0D57EA2F680C6CDE0A3FF17F5A06</t>
+  </si>
+  <si>
+    <t>ibc/89462910A840DD95C2875A63138277B5913146E06411ABA792389455A92D9C5E</t>
+  </si>
+  <si>
+    <t>yksnftflow1</t>
+  </si>
+  <si>
+    <t>ibc/AB349045DF8C28DC4F565D165DC54D5BD5D3A12BD5CEE07ADE8411D45A738957</t>
+  </si>
+  <si>
+    <t>yksnftflowa2</t>
+  </si>
+  <si>
+    <t>ibc/0ED03FA6A488C2030CC3BB8A6C89F9713BECA1D96E12FAF687E460494928859B</t>
+  </si>
+  <si>
+    <t>yksnftflowa3</t>
+  </si>
+  <si>
+    <t>ibc/128FDBC27520A0FE09413E5802DE3B8185CA01FDD3AB2C2044AF6C23A157CD1A</t>
+  </si>
+  <si>
+    <t>yksnftflowa4</t>
+  </si>
+  <si>
+    <t>ibc/19167EBEBFF547CC7FCD651551AC78FF3684286D431C54DA56F6F1E96A548389</t>
+  </si>
+  <si>
+    <t>yksnftflowa5</t>
+  </si>
+  <si>
+    <t>ibc/B574A4291DCE8E9ADD3DB34DBAF08180AF22F5C6AFCFF0022AB418D70EB794C7</t>
+  </si>
+  <si>
+    <t>yksnftflowa6</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>DF8402E774C09A3F9F234A41B48B2E0D93A910EC24B362F7CB28455ADB814EF7</t>
+  </si>
+  <si>
+    <t>0BCC03E60D63C936D762078B3BE4D99CB4935305B49F263F2281A7BC15F466A9</t>
+  </si>
+  <si>
+    <t>2716715BFC666C069D1C44E0DFFB84E487A8C387F3A24AB7AB64D69983EEA118</t>
+  </si>
+  <si>
+    <t>FD36F22B9626A8D8EAA2C68CA7667B25A233E793A9852C75B51911CD2302D4AE</t>
+  </si>
+  <si>
+    <t>4169E127E348B3A8FCC9F457B7071F85F702078AF347CABA6FE38F5D218914A0</t>
+  </si>
+  <si>
+    <t>BB6E62C2AB609D2286AB25F206B7E42CFF604A9A24FFB51B677B202AACCFD4EA</t>
+  </si>
+  <si>
+    <t>3E26DEABB70590BC20613A16FAB716E1047D81343FAE5F42632A6E689D17E514</t>
+  </si>
+  <si>
+    <t>FE54ADC37106ED964E32AA7C575D76D7132E44BA8304514A123C54A4AAD5842F</t>
+  </si>
+  <si>
+    <t>A3392948A40DDC78682DA349FFCEA6C77C39FCA61298E7E42B39B3F42E4EB979</t>
+  </si>
+  <si>
+    <t>FF285DFCA17368B9CBA2AB4A1C7FE7374CE611A3FAA2F497FF3F9C1DB6499FC9</t>
+  </si>
+  <si>
+    <t>115C8A63961F59221C35038C115D0EBCF90BF5D7D3E2B58DB9E0BB0A3FA76EC7</t>
+  </si>
+  <si>
+    <t>778036F041BF7E0F8DA70BC220BC1DCDD5DF74C9D1BB79878D880F826123D23E</t>
+  </si>
+  <si>
+    <t>A0561C72447F60AFCE915997588AB06FB423C7E7B6B0125B32DB790C09C84F65</t>
+  </si>
+  <si>
+    <t>8A0516F302C991436618BDEB21FA3AD62DBBF241096CB53EFA72A6BD11202408</t>
+  </si>
+  <si>
+    <t>DB1DA6A0669890ECA6BD2B415F372CC25626129A0873FBDE17799D0AB60D681B</t>
+  </si>
+  <si>
+    <t>433BED7E804B534BD1BC762BAE65F432FCEC7457A3B3C34D2E24BD65ADBF0115</t>
+  </si>
+  <si>
+    <t>D9D5E33E1762D459B7D0FB29010123F62B561915D096FD65AF61A19E84790199</t>
+  </si>
+  <si>
+    <t>70CBCDAF9FD2CE0C00759A20863FDE2D53FCF8B63BA3A86240BFA7683B5D4AF1</t>
+  </si>
+  <si>
+    <t>E3853A0DB299C5377927BCE92BFDFF578936CA280B9E8E7255520218ABEBD92F</t>
+  </si>
+  <si>
+    <t>79BF32AFE9E77FF2218E321689BE6C95BA876F99FD07EA20D986E4C28F735FB8</t>
+  </si>
+  <si>
+    <t>D9AF763AF334225F1C896E56A90905207E4409FBBAFB8E55A65A481DCCC8FE7A</t>
+  </si>
+  <si>
+    <t>EE3CAEC1E56C4F251AB30F5F59CD41A19270182841968912A76AE0D1EA2B3FED</t>
+  </si>
+  <si>
+    <t>0BDFEDBE0685B4B657EAFEE34B2F9750AB3F26F32FE2FA51E2B57C01346C6396</t>
+  </si>
+  <si>
+    <t>C17212664FE5A52CEC59BC5A4F66EA55AE043C271E871A76238882EA2B28CCA3</t>
+  </si>
+  <si>
+    <t>F9A2ADEFB699CCD9DF05CB60E8DCA61993C5F21D761A634E071B19FFAD176FAA</t>
+  </si>
+  <si>
+    <t>EA9C0DC5C5A8602F32FC8F4B3FED9C89923D12FEA1D848EA921F25C004847DA9</t>
+  </si>
+  <si>
+    <t>6E9E3EC1B339C492E4B194CAADD80D669B9F89CE957F984C081FAADEBC966F0E</t>
+  </si>
+  <si>
+    <t>34B9AA1BB6D71EAF7E7674D046FA3935076D28B9393B89A795DCF6A461E5469A</t>
+  </si>
+  <si>
+    <t>85F6849D2D9ED7896190C52D47D2E83725785D9AE5FE740C83CEE265DFE0B308</t>
+  </si>
+  <si>
+    <t>65690F8C85E4A6FBA37A1DBA351196A0C6E895F2DA2A63027B9C924862D1F333</t>
+  </si>
+  <si>
+    <t>E0D2371DE9F677B3D0A1182B21DD27AE1497D9C1D44C32CDA65924BCA8E9CDA2</t>
+  </si>
+  <si>
+    <t>81CA184BC223C472DC80598568B20E48F57596936255DFF49B116172755299B4</t>
+  </si>
+  <si>
+    <t>556D00E47E3B0F09EA5BFFC96DAA9DE4A97D40A9CBD6C9B5239DF285A212384F</t>
+  </si>
+  <si>
+    <t>F6D947E07600C17AAC47D9D4544046D830730A32C15F1F30D299B416C7CFCCF6</t>
+  </si>
+  <si>
+    <t>A3E6D03D1398D86EFD38E8DF388E28E783F64958796CDC5FF85030FCA6222F7C</t>
+  </si>
+  <si>
+    <t>B86DF1315D1FEEE1F7C2C97EAC06B42B3C77A638F012C53DD06F7F5FBB16247F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,6 +368,12 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -264,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -274,6 +418,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -623,7 +771,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -665,28 +813,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -719,10 +869,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -752,10 +904,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -785,10 +939,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -818,10 +974,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -832,9 +988,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -851,20 +1009,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -875,9 +1047,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -894,20 +1068,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -918,9 +1106,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -937,20 +1127,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -961,9 +1165,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -980,20 +1186,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1004,9 +1224,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1023,20 +1245,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1047,9 +1283,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1066,20 +1304,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>77</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1363,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1125,9 +1377,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1144,20 +1398,50 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1168,9 +1452,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1187,20 +1473,50 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
@@ -1224,12 +1542,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1259,12 +1577,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1294,12 +1612,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1329,12 +1647,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1374,57 +1692,57 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1463,16 +1781,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1511,16 +1829,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1559,16 +1877,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1581,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -1608,17 +1926,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="7" t="s">
-        <v>46</v>
+      <c r="A2" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1950,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -1650,10 +1968,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1683,10 +2003,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/yekssin/evidence.xlsx
+++ b/yekssin/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" firstSheet="7" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
   <si>
     <t>TeamName</t>
   </si>
@@ -322,6 +322,18 @@
   </si>
   <si>
     <t>B86DF1315D1FEEE1F7C2C97EAC06B42B3C77A638F012C53DD06F7F5FBB16247F</t>
+  </si>
+  <si>
+    <t>F18639EC56204A7CA80D622B8AC7E97915DD5BE0F4BEAAD7CC77B7F4214CEC34</t>
+  </si>
+  <si>
+    <t>573D1F41A330F78FB529AA265DAE5CBAF4B3A27EC22E78A0A6EDA5972491D38D</t>
+  </si>
+  <si>
+    <t>2ABEB91AD183C1FEF536E6C148BA8537DA3C14E59782B18BEAF9E8BBEEC2FC35</t>
+  </si>
+  <si>
+    <t>C47D40FEDD91AB06F879E289CEBBBA5FC26E81A2685562CE7D927F3FE061CCA5</t>
   </si>
 </sst>
 </file>
@@ -955,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1529,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1542,12 +1554,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1577,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1577,12 +1589,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/yekssin/evidence.xlsx
+++ b/yekssin/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" firstSheet="7" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100" tabRatio="500" firstSheet="9" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="101">
   <si>
     <t>TeamName</t>
   </si>
@@ -81,12 +82,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>iaa1zj835pe42xlp6cxxr60zk7uw9dvk5q3yxycqj6</t>
   </si>
   <si>
@@ -334,6 +329,24 @@
   </si>
   <si>
     <t>C47D40FEDD91AB06F879E289CEBBBA5FC26E81A2685562CE7D927F3FE061CCA5</t>
+  </si>
+  <si>
+    <t>AFF9D9CF18AB860A310C5CA9EC0F9B2D33A252C5DDA1BDC13C9B79443E466D4B</t>
+  </si>
+  <si>
+    <t>775E837B4B17EC0E8A4E527FDE060D3F2CB451F72561BA3DF6E1338AF738C163</t>
+  </si>
+  <si>
+    <t>AE99A07454698AAA0EA73351FA2CE63031EB490B3D9C02BC4AEA6A2DDD29E60F</t>
+  </si>
+  <si>
+    <t>8DDA531D92A5D2825151CDCB7932E405C2CF07E13149E7DEAF6836A48AE5888F</t>
+  </si>
+  <si>
+    <t>0C411A1F25A89A40C7D028B06D605717048A0247ADBB1D7E305F15DEE8B36D1B</t>
+  </si>
+  <si>
+    <t>7DA4002158DC20181EB2BE85E3E86CAF528B12450E56A7E9CC6760820003D0CE</t>
   </si>
 </sst>
 </file>
@@ -420,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -436,6 +449,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -825,28 +839,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -881,10 +895,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +930,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -951,10 +965,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -986,10 +1000,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1021,34 +1035,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1080,34 +1094,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1139,34 +1153,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1198,34 +1212,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1257,34 +1271,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1316,34 +1330,34 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1389,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1410,50 +1424,50 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1485,50 +1499,50 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -1554,12 +1568,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1589,12 +1603,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1626,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1624,12 +1638,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
+      <c r="A3" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1646,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1659,12 +1673,12 @@
     </row>
     <row r="2" spans="1:1" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1674,6 +1688,34 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25">
+      <c r="A2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25">
+      <c r="A3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1704,57 +1746,57 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1793,16 +1835,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1841,16 +1883,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1889,16 +1931,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1939,16 +1981,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1980,10 +2022,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2015,10 +2057,10 @@
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
